--- a/設計書テンプレート/基本設計テンプレート.xlsx
+++ b/設計書テンプレート/基本設計テンプレート.xlsx
@@ -5,20 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="１−１．画面項目" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="１−２．UIレイアウト" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="１−３．エラー画面" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="１−４．UIプロセス" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="１−５．UI側機能設計" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="２．サーバ側機能設計" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="３−１−１．項目の整理" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="３−１−２．エンティティと項目" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="３−１−３．正規化" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="３−１．エンティティとリレーション" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="３−２．DB側機能設計" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="２．サーバ側機能設計" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="３−１−１．項目の整理" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="３−１−２．エンティティと項目" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="３−１−３．正規化" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="３−１．エンティティとリレーション" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="３−２．DB側機能設計" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t xml:space="preserve">UI</t>
   </si>
@@ -92,6 +91,9 @@
     <t xml:space="preserve">ボタン</t>
   </si>
   <si>
+    <t xml:space="preserve">リンク</t>
+  </si>
+  <si>
     <t xml:space="preserve">＃</t>
   </si>
   <si>
@@ -125,7 +127,10 @@
     <t xml:space="preserve">次のUIへの出力に必要なことをする</t>
   </si>
   <si>
-    <t xml:space="preserve">機能ID:#-#</t>
+    <t xml:space="preserve">機能ID:#-#-#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">機能名:</t>
   </si>
   <si>
     <t xml:space="preserve">入力</t>
@@ -135,12 +140,6 @@
   </si>
   <si>
     <t xml:space="preserve">処理詳細</t>
-  </si>
-  <si>
-    <t xml:space="preserve">機能ID:#-#-#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">機能名:</t>
   </si>
   <si>
     <t xml:space="preserve">エンティティ名</t>
@@ -182,9 +181,12 @@
       <family val="0"/>
     </font>
     <font>
+      <u val="single"/>
       <sz val="10"/>
+      <color rgb="FF2A6099"/>
       <name val="ヒラギノ角ゴシック"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -423,7 +425,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -456,6 +458,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -476,67 +482,67 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -617,7 +623,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF2A6099"/>
       <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -659,15 +665,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
@@ -783,123 +790,52 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P5" activeCellId="0" sqref="P5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="39"/>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="39"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+    <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S17" activeCellId="0" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="3" style="0" width="2.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="12.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="12.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="3" style="8" width="2.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
+      <c r="B2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="A16" s="8" t="s">
         <v>34</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -916,150 +852,151 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:BH22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="2.3671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE2" s="8" t="s">
+      <c r="AE2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="9"/>
-      <c r="AQ2" s="9"/>
-      <c r="AR2" s="9"/>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="9"/>
-      <c r="AV2" s="9"/>
-      <c r="AW2" s="9"/>
-      <c r="AX2" s="9"/>
-      <c r="AY2" s="9"/>
-      <c r="AZ2" s="9"/>
-      <c r="BA2" s="9"/>
-      <c r="BB2" s="9"/>
-      <c r="BC2" s="9"/>
-      <c r="BD2" s="9"/>
-      <c r="BE2" s="9"/>
-      <c r="BF2" s="9"/>
-      <c r="BG2" s="9"/>
-      <c r="BH2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="10"/>
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="10"/>
+      <c r="BA2" s="10"/>
+      <c r="BB2" s="10"/>
+      <c r="BC2" s="10"/>
+      <c r="BD2" s="10"/>
+      <c r="BE2" s="10"/>
+      <c r="BF2" s="10"/>
+      <c r="BG2" s="10"/>
+      <c r="BH2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE3" s="11"/>
-      <c r="BH3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="BH3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="0" t="s">
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AK4" s="8" t="s">
+      <c r="AK4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AL4" s="9"/>
-      <c r="AM4" s="9"/>
-      <c r="AN4" s="9"/>
-      <c r="AO4" s="9"/>
-      <c r="AP4" s="9"/>
-      <c r="AQ4" s="10"/>
-      <c r="BH4" s="12"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="11"/>
+      <c r="BH4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE5" s="11"/>
-      <c r="BH5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="BH5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE6" s="11"/>
-      <c r="AK6" s="0" t="s">
+      <c r="AE6" s="12"/>
+      <c r="AK6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AL6" s="13" t="s">
+      <c r="AL6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AP6" s="13"/>
-      <c r="BH6" s="12"/>
+      <c r="AP6" s="8"/>
+      <c r="BH6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE7" s="11"/>
-      <c r="AK7" s="0" t="s">
+      <c r="AE7" s="12"/>
+      <c r="AK7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AL7" s="0" t="s">
+      <c r="AL7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="BH7" s="12"/>
+      <c r="BH7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE8" s="11"/>
-      <c r="BH8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="BH8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE9" s="11"/>
+      <c r="AE9" s="12"/>
       <c r="AK9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AL9" s="0" t="s">
+      <c r="AL9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="BH9" s="12"/>
+      <c r="BH9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE10" s="11"/>
+      <c r="AE10" s="12"/>
       <c r="AK10" s="14"/>
-      <c r="AL10" s="0" t="s">
+      <c r="AL10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="BH10" s="12"/>
+      <c r="BH10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE11" s="11"/>
-      <c r="BH11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="BH11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE12" s="11"/>
-      <c r="AK12" s="8" t="s">
+      <c r="AE12" s="12"/>
+      <c r="AK12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AL12" s="9"/>
-      <c r="AM12" s="9"/>
-      <c r="AN12" s="9"/>
-      <c r="AO12" s="9"/>
-      <c r="AP12" s="9"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="10"/>
       <c r="AQ12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="BH12" s="12"/>
+      <c r="BH12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE13" s="11"/>
-      <c r="BH13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="BH13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE14" s="11"/>
+      <c r="AE14" s="12"/>
       <c r="AK14" s="15" t="s">
         <v>16</v>
       </c>
@@ -1077,20 +1014,20 @@
       <c r="AX14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="AZ14" s="0" t="s">
+      <c r="AZ14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="BH14" s="12"/>
+      <c r="BH14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE15" s="11"/>
+      <c r="AE15" s="12"/>
       <c r="AK15" s="19"/>
       <c r="AV15" s="20"/>
       <c r="AX15" s="18"/>
-      <c r="BH15" s="12"/>
+      <c r="BH15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE16" s="11"/>
+      <c r="AE16" s="12"/>
       <c r="AK16" s="21"/>
       <c r="AL16" s="22"/>
       <c r="AM16" s="22"/>
@@ -1104,21 +1041,21 @@
       <c r="AU16" s="22"/>
       <c r="AV16" s="23"/>
       <c r="AX16" s="24"/>
-      <c r="BH16" s="12"/>
+      <c r="BH16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE17" s="11"/>
+      <c r="AE17" s="12"/>
       <c r="AX17" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="BH17" s="12"/>
+      <c r="BH17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE18" s="11"/>
-      <c r="BH18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="BH18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE19" s="11"/>
+      <c r="AE19" s="12"/>
       <c r="AK19" s="26" t="s">
         <v>19</v>
       </c>
@@ -1128,47 +1065,50 @@
       <c r="AO19" s="27"/>
       <c r="AP19" s="27"/>
       <c r="AQ19" s="28"/>
-      <c r="BH19" s="12"/>
+      <c r="BH19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE20" s="11"/>
-      <c r="BH20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="BH20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE21" s="11"/>
-      <c r="BH21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AK21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="BH21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="30"/>
-      <c r="AH22" s="30"/>
-      <c r="AI22" s="30"/>
-      <c r="AJ22" s="30"/>
-      <c r="AK22" s="30"/>
-      <c r="AL22" s="30"/>
-      <c r="AM22" s="30"/>
-      <c r="AN22" s="30"/>
-      <c r="AO22" s="30"/>
-      <c r="AP22" s="30"/>
-      <c r="AQ22" s="30"/>
-      <c r="AR22" s="30"/>
-      <c r="AS22" s="30"/>
-      <c r="AT22" s="30"/>
-      <c r="AU22" s="30"/>
-      <c r="AV22" s="30"/>
-      <c r="AW22" s="30"/>
-      <c r="AX22" s="30"/>
-      <c r="AY22" s="30"/>
-      <c r="AZ22" s="30"/>
-      <c r="BA22" s="30"/>
-      <c r="BB22" s="30"/>
-      <c r="BC22" s="30"/>
-      <c r="BD22" s="30"/>
-      <c r="BE22" s="30"/>
-      <c r="BF22" s="30"/>
-      <c r="BG22" s="30"/>
-      <c r="BH22" s="31"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="31"/>
+      <c r="AG22" s="31"/>
+      <c r="AH22" s="31"/>
+      <c r="AI22" s="31"/>
+      <c r="AJ22" s="31"/>
+      <c r="AK22" s="31"/>
+      <c r="AL22" s="31"/>
+      <c r="AM22" s="31"/>
+      <c r="AN22" s="31"/>
+      <c r="AO22" s="31"/>
+      <c r="AP22" s="31"/>
+      <c r="AQ22" s="31"/>
+      <c r="AR22" s="31"/>
+      <c r="AS22" s="31"/>
+      <c r="AT22" s="31"/>
+      <c r="AU22" s="31"/>
+      <c r="AV22" s="31"/>
+      <c r="AW22" s="31"/>
+      <c r="AX22" s="31"/>
+      <c r="AY22" s="31"/>
+      <c r="AZ22" s="31"/>
+      <c r="BA22" s="31"/>
+      <c r="BB22" s="31"/>
+      <c r="BC22" s="31"/>
+      <c r="BD22" s="31"/>
+      <c r="BE22" s="31"/>
+      <c r="BF22" s="31"/>
+      <c r="BG22" s="31"/>
+      <c r="BH22" s="32"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1184,6 +1124,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D15"/>
@@ -1192,111 +1133,111 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="2.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="17.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="17.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="29.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>23</v>
       </c>
+      <c r="D1" s="33" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1312,6 +1253,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F6"/>
@@ -1320,58 +1262,58 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="34" width="17.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="34" width="2.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="2.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="17.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="2.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="35" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="35" width="2.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="29.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="34" t="s">
+      <c r="B1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="0" t="s">
+      <c r="C1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>27</v>
       </c>
+      <c r="E1" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>28</v>
+      <c r="D2" s="35" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="34" t="s">
-        <v>29</v>
+      <c r="D4" s="35" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="21.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="34" t="s">
-        <v>30</v>
+      <c r="D6" s="35" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1388,35 +1330,39 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="O19" activeCellId="0" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="3" style="0" width="2.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="12.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="12.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="3" style="8" width="2.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>31</v>
+      <c r="A1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="A2" s="8" t="s">
         <v>34</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1433,39 +1379,125 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O19" activeCellId="0" sqref="O19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="3" style="0" width="2.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="34.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="2.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="34.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>36</v>
+      <c r="A1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="36" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>34</v>
-      </c>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="38"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="38"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="38"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="38"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="38"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="38"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="38"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="38"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="38"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="38"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="38"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="38"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="38"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="38"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="38"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="38"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="38"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="38"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="38"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1481,124 +1513,64 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF2A6099"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="P5" activeCellId="0" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.83"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="2.3671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="37"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="37"/>
+      <c r="A3" s="40"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="37"/>
+      <c r="A4" s="40"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="37"/>
+      <c r="A5" s="40"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="37"/>
+      <c r="A6" s="40"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="37"/>
+      <c r="A7" s="40"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="37"/>
+      <c r="A8" s="40"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="37"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="37"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="37"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="37"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="37"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="37"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="37"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="37"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="37"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="37"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="37"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="37"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1614,6 +1586,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF2A6099"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F9"/>
@@ -1622,7 +1595,7 @@
       <selection pane="topLeft" activeCell="P5" activeCellId="0" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="2.3671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -1635,42 +1608,42 @@
       <c r="F1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39"/>
-      <c r="F3" s="12"/>
+      <c r="A3" s="40"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39"/>
-      <c r="F4" s="12"/>
+      <c r="A4" s="40"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39"/>
-      <c r="F5" s="12"/>
+      <c r="A5" s="40"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39"/>
-      <c r="F6" s="12"/>
+      <c r="A6" s="40"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="39"/>
-      <c r="F7" s="12"/>
+      <c r="A7" s="40"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="39"/>
-      <c r="F8" s="12"/>
+      <c r="A8" s="40"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1686,6 +1659,7 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F9"/>
@@ -1694,7 +1668,7 @@
       <selection pane="topLeft" activeCell="P5" activeCellId="0" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="2.3671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -1707,42 +1681,42 @@
       <c r="F1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39"/>
-      <c r="F3" s="12"/>
+      <c r="A3" s="40"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39"/>
-      <c r="F4" s="12"/>
+      <c r="A4" s="40"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39"/>
-      <c r="F5" s="12"/>
+      <c r="A5" s="40"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39"/>
-      <c r="F6" s="12"/>
+      <c r="A6" s="40"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="39"/>
-      <c r="F7" s="12"/>
+      <c r="A7" s="40"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="39"/>
-      <c r="F8" s="12"/>
+      <c r="A8" s="40"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
